--- a/conf/files/Structure.xlsx
+++ b/conf/files/Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="348" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="255" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,20 +13,29 @@
     <sheet name="Countries" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Providers" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="582">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Weight</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Color</t>
   </si>
   <si>
     <t>Description</t>
@@ -50,6 +59,18 @@
     <t>description arabic</t>
   </si>
   <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Web Index</t>
+  </si>
+  <si>
+    <t>7D9900</t>
+  </si>
+  <si>
+    <t>The World Wide Web Foundation Web Index 2013</t>
+  </si>
+  <si>
     <t>subindex</t>
   </si>
   <si>
@@ -59,6 +80,9 @@
     <t>Universal Access</t>
   </si>
   <si>
+    <t>1f77b4</t>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
@@ -86,16 +110,13 @@
     <t>Freedom and Openness</t>
   </si>
   <si>
+    <t>2ca02c</t>
+  </si>
+  <si>
     <t>freedom</t>
   </si>
   <si>
-    <t>Freedom</t>
-  </si>
-  <si>
-    <t>openness</t>
-  </si>
-  <si>
-    <t>Openness</t>
+    <t>Freedom of the Web</t>
   </si>
   <si>
     <t>content</t>
@@ -104,6 +125,9 @@
     <t>Relevant Content</t>
   </si>
   <si>
+    <t>ff7f0e</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
@@ -122,6 +146,9 @@
     <t>Impact and Empowerment</t>
   </si>
   <si>
+    <t>d62728</t>
+  </si>
+  <si>
     <t>economic</t>
   </si>
   <si>
@@ -140,9 +167,6 @@
     <t>Social and environmental</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
@@ -224,7 +248,7 @@
     <t>Base station density measures both coverage and quality of service of a wireless network. Data for each carrier operating in a given country is added and the total is divided by population</t>
   </si>
   <si>
-    <t>GSMA</t>
+    <t>WI</t>
   </si>
   <si>
     <t>ITU A</t>
@@ -266,7 +290,7 @@
     <t>WB</t>
   </si>
   <si>
-    <t>IEAA</t>
+    <t>IEA A</t>
   </si>
   <si>
     <t>Electrification Rate</t>
@@ -302,6 +326,15 @@
     <t>Primary</t>
   </si>
   <si>
+    <t>Q53</t>
+  </si>
+  <si>
+    <t>Flexible and Neutral ICT licensing frameworks</t>
+  </si>
+  <si>
+    <t>To what extent are ICT licensing frameworks flexible, simple, and technology and service neutral?</t>
+  </si>
+  <si>
     <t>ITU B</t>
   </si>
   <si>
@@ -338,6 +371,9 @@
     <t>The monthly subscription charge for fixed (wired) broadband Internet service. Fixed (wired) broadband is considered any dedicated connection to the Internet at downstream speeds equal to, or greater than, 256 kilobit/s, using DSL. Where several offers are available, preference should be given to the 256 kilobit/s connection. Taxes should be included. This indicator is expressed in US$ as a share of monthly GDP per capita .</t>
   </si>
   <si>
+    <t>Low</t>
+  </si>
+  <si>
     <t>ITU S</t>
   </si>
   <si>
@@ -347,7 +383,7 @@
     <t>Mobile-broadband prices are collected from the operator with the largest market share in the country, for the following technologies: UMTS, HSDPA+/HSDPA, CDMA2000 and IEEE 802.16e. Prices are collected for the least expensive plan with a (minimum) data allowance of:  1 GB for computer-based subscriptions; 250 MB and 500 MB for handset-based subscriptions providing access to the greater Internet over (a minimum of) 30 days. This indicator is expressed in US$ as a share of monthly GDP per capita .</t>
   </si>
   <si>
-    <t>ITU N</t>
+    <t>ITU J</t>
   </si>
   <si>
     <t>Cost of bandwidth per MB</t>
@@ -371,7 +407,7 @@
     <t>Q18</t>
   </si>
   <si>
-    <t>Policies for stimulating web use among those with disabilities</t>
+    <t>Government Prioritisation of web Accessibility </t>
   </si>
   <si>
     <t>To what extent is Web accessibility (access to the Web by users with disabilities) a priority of government policymakers?</t>
@@ -380,7 +416,7 @@
     <t>Q19</t>
   </si>
   <si>
-    <t>Web accessibility by people with disability in IT community</t>
+    <t>IT Community Prioritisation of web Accessibility</t>
   </si>
   <si>
     <t>To what extent is Web accessibility (access to the Web by users with disabilities) a priority of information technology professionals and Web developers?</t>
@@ -389,7 +425,7 @@
     <t>Q20</t>
   </si>
   <si>
-    <t>Enforcement of web accessibility by people with disability</t>
+    <t>Legal Requirements to ensure Accessibility of Government Websites</t>
   </si>
   <si>
     <t>To what extent is there a law or other legally binding requirement that all government departments make their websites accessible to users with various disabilities?</t>
@@ -437,7 +473,7 @@
     <t>Q38</t>
   </si>
   <si>
-    <t>Web accessibility by females promotion policies</t>
+    <t>Government Prioritisation of web Access for women and girls</t>
   </si>
   <si>
     <t>To what extent has the government prioritized support for increased access to the Web for women and girls?</t>
@@ -446,7 +482,7 @@
     <t>Q39</t>
   </si>
   <si>
-    <t>Government sponsored training for Web accessibility by females</t>
+    <t>Government prioritisation of web training for women and girls</t>
   </si>
   <si>
     <t>To what extent has the government prioritized support for increased training in how to use the Web for women and girls?</t>
@@ -464,7 +500,7 @@
     <t>Q41</t>
   </si>
   <si>
-    <t>Government ICT training for women</t>
+    <t>Government ICT training for women employees</t>
   </si>
   <si>
     <t>To what extent are there official programs that support the training of female government employees in Web use?</t>
@@ -554,58 +590,40 @@
     <t>Q11</t>
   </si>
   <si>
-    <t>Data privacy protection framework</t>
+    <t>Privacy of electronic communications protection framework</t>
   </si>
   <si>
     <t>To what extent are there laws in your country that provide both substantive and procedural safeguards to protect the privacy of electronic communications?</t>
   </si>
   <si>
-    <t>ODB.C.1</t>
-  </si>
-  <si>
-    <t>Government-sponsored open data initiative</t>
+    <t>ODB.2013.C.INIT</t>
+  </si>
+  <si>
+    <t>Open Government Data Initiative</t>
   </si>
   <si>
     <t>To what extent is there a well-resourced open government data initiative in this country?</t>
   </si>
   <si>
-    <t>INIT</t>
-  </si>
-  <si>
     <t>ODB</t>
   </si>
   <si>
-    <t>ODB.C.2</t>
-  </si>
-  <si>
-    <t>Right to information access legal framework</t>
+    <t>ODB.2013.C.CSOC</t>
+  </si>
+  <si>
+    <t>Civil Society Engagement on Open Data</t>
+  </si>
+  <si>
+    <t>To what extent are civil society and information technology professionals engaging with the government regarding open data?</t>
+  </si>
+  <si>
+    <t>ODB.2013.C.RTI</t>
+  </si>
+  <si>
+    <t>Right to information legal framework</t>
   </si>
   <si>
     <t>To what extent does the country have a functioning right-to-information law?</t>
-  </si>
-  <si>
-    <t>RTI</t>
-  </si>
-  <si>
-    <t>ODB.C.3</t>
-  </si>
-  <si>
-    <t>Safeguards of right of information</t>
-  </si>
-  <si>
-    <t>?????</t>
-  </si>
-  <si>
-    <t>ODB.C.4</t>
-  </si>
-  <si>
-    <t>Civil society engagement in open data initiatives</t>
-  </si>
-  <si>
-    <t>To what extent are civil society and information technology professionals engaging with the government regarding open data?</t>
-  </si>
-  <si>
-    <t>CSOC</t>
   </si>
   <si>
     <t>WIKI A</t>
@@ -633,7 +651,7 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>Web use for public health</t>
+    <t>Web use for health information dissemination</t>
   </si>
   <si>
     <t>To what extent does government or private-sector service providers utilize the Web to provide the public with information regarding local infectious diseases, such as prevention, control and/or outbreaks?</t>
@@ -642,7 +660,7 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>Web-Based health information</t>
+    <t>Web-Based information on public health services</t>
   </si>
   <si>
     <t>To what extent is information regarding access to publicly supported/funded local health care services made available on the Web?</t>
@@ -660,7 +678,7 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>Web-based education open data initiative</t>
+    <t>Government Provision of School Performance Information</t>
   </si>
   <si>
     <t>To what extent does the government publish school-level information about education performance online?</t>
@@ -669,7 +687,7 @@
     <t>Q14</t>
   </si>
   <si>
-    <t>Web-based agricultural information</t>
+    <t>Government Provision of agricultural pricing information</t>
   </si>
   <si>
     <t>To what extent does the government provide real-time market prices of key agricultural goods on the Web?</t>
@@ -678,7 +696,7 @@
     <t>Q15</t>
   </si>
   <si>
-    <t>Web-based agricultural advice</t>
+    <t>Government provision of agricultural advice</t>
   </si>
   <si>
     <t>To what extent does the government provide real-time updates and advice for how to cope with crop and livestock diseases on the Web?</t>
@@ -687,7 +705,7 @@
     <t>Q16</t>
   </si>
   <si>
-    <t>Web-based early warning of natural disasters</t>
+    <t>Government provision of early warning on natural disasters</t>
   </si>
   <si>
     <t>To what extent does the government provide early warning systems information on the Web about drought, flooding and other climate-related stresses?</t>
@@ -696,7 +714,7 @@
     <t>Q43</t>
   </si>
   <si>
-    <t>Web-based reproductive rights and services</t>
+    <t>Web-based reproductive rights and services information</t>
   </si>
   <si>
     <t>To what extent is the Web used to expand access to information about reproductive and sexual health rights and services in the main local languages?</t>
@@ -705,7 +723,7 @@
     <t>Q44</t>
   </si>
   <si>
-    <t>Gender equality information</t>
+    <t>Government provision of gender equality information</t>
   </si>
   <si>
     <t>To what extent is the Web being used by the government to inform women of their legal rights in areas such as right to equal opportunities, right to inheritance, and rights to seek legal redress against violence?</t>
@@ -714,7 +732,7 @@
     <t>Q45</t>
   </si>
   <si>
-    <t>Government provided gender violence protection</t>
+    <t>Government provision of information on support for GBV victims</t>
   </si>
   <si>
     <t>To what extent is the Web being used by the government to provide information about support that is available for victims of gender-based violence?</t>
@@ -723,7 +741,7 @@
     <t>Q46</t>
   </si>
   <si>
-    <t>Civil society provided gender violence protection</t>
+    <t>Web-based information on support for GBV victims</t>
   </si>
   <si>
     <t>To what extent is the Web being used by civil society organizations to provide information about the support available to victims of gender-based violence?</t>
@@ -732,28 +750,31 @@
     <t>Q13</t>
   </si>
   <si>
-    <t>Information on jobs</t>
+    <t>Web-based information on job opportunities</t>
   </si>
   <si>
     <t>To what extent are there locally relevant employment websites that list job opportunities?</t>
   </si>
   <si>
-    <t>Q1:Q15</t>
-  </si>
-  <si>
-    <t>Open data content ?????</t>
+    <t>ODB.2013.D1-D15</t>
+  </si>
+  <si>
+    <t>Availabiltiy of government datasets in open formats</t>
+  </si>
+  <si>
+    <t>Government dataset availability in open formats</t>
   </si>
   <si>
     <t>Q47</t>
   </si>
   <si>
-    <t>Employment rights information</t>
+    <t>Web-based information on low-paid worker rights</t>
   </si>
   <si>
     <t>To what extent is the Web being used to inform workers and employers about the rights of those in low-paid, vulnerable jobs such as maids, farm laborers, piecework employees, home workers, etc.?</t>
   </si>
   <si>
-    <t>ITU J</t>
+    <t>ITU N</t>
   </si>
   <si>
     <t>% of individuals using the internet</t>
@@ -786,7 +807,19 @@
     <t>Q52</t>
   </si>
   <si>
+    <t>Social Network Use</t>
+  </si>
+  <si>
+    <t>To what extent are social networks used in the country?</t>
+  </si>
+  <si>
     <t>Q49</t>
+  </si>
+  <si>
+    <t>Government use of web-based environmental information</t>
+  </si>
+  <si>
+    <t>To what extent do government agencies and authorities use the Web to access information for their decision-making on climate and environmental management issues?</t>
   </si>
   <si>
     <t>EM A</t>
@@ -828,7 +861,7 @@
     <t>Q17</t>
   </si>
   <si>
-    <t>Web use for agriculture</t>
+    <t>Information use for Agricultural Innovation</t>
   </si>
   <si>
     <t>To what extent do business associations or agricultural cooperatives leverage agricultural pricing and weather information provided by the government and/or other sources on the Web to provide more innovative goods and services?</t>
@@ -846,7 +879,7 @@
     <t>Q8</t>
   </si>
   <si>
-    <t>Laws against cybercrime</t>
+    <t>Cybercrime legal protection framework</t>
   </si>
   <si>
     <t>To what extent does the law protect people from crimes committed using the Internet?</t>
@@ -855,13 +888,16 @@
     <t>Q9</t>
   </si>
   <si>
-    <t>Protection from cybercrime</t>
+    <t>Enforcement and Protection from Cybercrime</t>
   </si>
   <si>
     <t>To what extent does the government enforce the laws in place to protect people from crimes committed using the Internet?</t>
   </si>
   <si>
-    <t>ODB.I.5</t>
+    <t>ODB.2013.I.ECON</t>
+  </si>
+  <si>
+    <t>Impact of open data on the economy</t>
   </si>
   <si>
     <t>To what extent has open data had a noticeable impact on the economy?</t>
@@ -870,13 +906,19 @@
     <t>ECON</t>
   </si>
   <si>
-    <t>ODB.I.1</t>
+    <t>ODB.2013.I.GOV</t>
+  </si>
+  <si>
+    <t>Impact of open data on government efficiency</t>
+  </si>
+  <si>
+    <t>To what extent has open data had a noticeable impact on increasing government efficiency and effectiveness?</t>
   </si>
   <si>
     <t>GOV</t>
   </si>
   <si>
-    <t>ODB.C.5</t>
+    <t>ODB.2013.C.SUPIN</t>
   </si>
   <si>
     <t>Open data based  innovation promotion initiatives</t>
@@ -888,7 +930,13 @@
     <t>SUPIN</t>
   </si>
   <si>
-    <t>ODB I.6</t>
+    <t>ODB.2013.I.ENTR</t>
+  </si>
+  <si>
+    <t>Entrepreneurial use of open data</t>
+  </si>
+  <si>
+    <t>To what extent are entrepreneurs successfully using open data to build new businesses in the country?</t>
   </si>
   <si>
     <t>ENTR</t>
@@ -915,7 +963,7 @@
     <t>Q28</t>
   </si>
   <si>
-    <t>Web-based political campaigning</t>
+    <t>Web-based campaigning by political parties</t>
   </si>
   <si>
     <t>To what extent do political parties use the Web to campaign or promote political issues, such as to influence elections or government decision-making?</t>
@@ -924,37 +972,52 @@
     <t>Q29</t>
   </si>
   <si>
+    <t>Web-based education and information provision by civil society</t>
+  </si>
+  <si>
     <t>To what extent do CSOs use the Web to educate and inform citizens about government decision-making and public policy issues?</t>
   </si>
   <si>
     <t>Q30</t>
   </si>
   <si>
+    <t>Web-based education and information provision by trade unions</t>
+  </si>
+  <si>
     <t>To what extent do trade unions use the Web to educate and inform citizens about government decision-making and public policy issues?</t>
   </si>
   <si>
     <t>Q31</t>
   </si>
   <si>
+    <t>Web-based public outreach by political parties</t>
+  </si>
+  <si>
     <t>To what extent do political parties use the Web for public outreach, such as to recruit members or keep existing members informed?</t>
   </si>
   <si>
     <t>Q32</t>
   </si>
   <si>
+    <t>Web-based public outreach by civil society</t>
+  </si>
+  <si>
     <t>To what extent do civil society organizations use the Web for public outreach, such as to recruit members or keep existing members informed?</t>
   </si>
   <si>
     <t>Q33</t>
   </si>
   <si>
+    <t>Web-based public outreach by trade unions</t>
+  </si>
+  <si>
     <t>To what extent do trade unions use the Web for public outreach, such as to recruit members or keep existing members informed?</t>
   </si>
   <si>
     <t>Q34</t>
   </si>
   <si>
-    <t>Web use for political mobilization</t>
+    <t>Political party web use for mobilization</t>
   </si>
   <si>
     <t>To what extent do political parties use the Web to mobilize members or other citizens to take action, such as attend a political rally or vote?</t>
@@ -963,22 +1026,34 @@
     <t>Q35</t>
   </si>
   <si>
+    <t>Civil society web use for mobilization</t>
+  </si>
+  <si>
     <t>To what extent do civil society organizations use the Web to mobilize citizens to influence government decision-making or to hold politicians and officials accountable?</t>
   </si>
   <si>
     <t>Q36</t>
   </si>
   <si>
+    <t>Trade union web use for mobilization</t>
+  </si>
+  <si>
     <t>To what extent do trade unions use the Web to mobilize citizens to influence government decision-making or to hold politicians and officials accountable?</t>
   </si>
   <si>
     <t>Q37</t>
   </si>
   <si>
+    <t>Web-stimulated local mobilization on political issues</t>
+  </si>
+  <si>
     <t>To what extent has your country experienced local, social mobilization on political issues in response to awareness raised via the Web?</t>
   </si>
   <si>
-    <t>ODB.I.2</t>
+    <t>ODB.2013.I.ACCOUNT</t>
+  </si>
+  <si>
+    <t>Impact of open data on transparency and accountability</t>
   </si>
   <si>
     <t>To what extent has open data had a noticeable impact on increasing transparency and accountability in the country?</t>
@@ -990,7 +1065,7 @@
     <t>Q51</t>
   </si>
   <si>
-    <t>Web-stimulated mobilization regarding environmental concerns</t>
+    <t>Web-stimulated local mobilization on environmental concerns</t>
   </si>
   <si>
     <t>To what extent has your country experienced local, social mobilization on the subject of environmental concerns (e.g., pollution, construction of power plants, etc.) in response to awareness raised via the Web?</t>
@@ -999,7 +1074,7 @@
     <t>Q6</t>
   </si>
   <si>
-    <t>Web impact on distance learning and qualification</t>
+    <t>Availaibilty of E-learning facilities</t>
   </si>
   <si>
     <t>To what extent is it possible for the public to obtain a diploma, certification or professional license through an in-country institution by receiving instruction via the Web, such as through online courses or electronic learning (e-learning)?</t>
@@ -1008,16 +1083,25 @@
     <t>Q48</t>
   </si>
   <si>
+    <t>Web-based information and education on environmental concerns</t>
+  </si>
+  <si>
     <t>To what extent is the Web used by local organizations to disseminate environmental information and facilitate education about climate and environmental concerns?</t>
   </si>
   <si>
     <t>Q50</t>
   </si>
   <si>
+    <t>Use of the web for global attention to local environmental concerns</t>
+  </si>
+  <si>
     <t>To what extent has the Web been used to raise global awareness about local environmental concerns?</t>
   </si>
   <si>
-    <t>ODB.I.3</t>
+    <t>ODB.2013.I.ENV</t>
+  </si>
+  <si>
+    <t>Impact of open data on environment sustainability</t>
   </si>
   <si>
     <t>To what extent has open data had a noticeable impact on environmental sustainability in the country?</t>
@@ -1026,7 +1110,10 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>ODB.I.4</t>
+    <t>ODB.2013.I.INC</t>
+  </si>
+  <si>
+    <t>Impact of open data on the inclusion of margianlised groups</t>
   </si>
   <si>
     <t>To what extent has open data had a noticeable impact on increasing the inclusion of marginalized groups in policy making and accessing government services?</t>
@@ -1044,7 +1131,7 @@
     <t>Region</t>
   </si>
   <si>
-    <t>WI start</t>
+    <t>start</t>
   </si>
   <si>
     <t>Analysis</t>
@@ -1575,37 +1662,112 @@
     <t>CIA</t>
   </si>
   <si>
+    <t>Central Intelligence Agency</t>
+  </si>
+  <si>
+    <t>Intelligence-gathering agency of the United States federal government</t>
+  </si>
+  <si>
+    <t>https://www.cia.gov/index.html</t>
+  </si>
+  <si>
+    <t>Economist Intelligence Unit</t>
+  </si>
+  <si>
+    <t>http://www.eiu.com/</t>
+  </si>
+  <si>
+    <t>Eurominitor</t>
+  </si>
+  <si>
+    <t>http://www.euromonitor.com/</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
     <t>Freedom House</t>
   </si>
   <si>
-    <t>GSMA report</t>
+    <t>http://www.freedomhouse.org/</t>
+  </si>
+  <si>
+    <t>International Energy Agency</t>
+  </si>
+  <si>
+    <t>http://www.iea.org/</t>
+  </si>
+  <si>
+    <t>INSEAD Business School</t>
+  </si>
+  <si>
+    <t>http://www.insead.edu/</t>
   </si>
   <si>
     <t>International Telecommunication Union</t>
   </si>
   <si>
+    <t>http://www.itu.int</t>
+  </si>
+  <si>
     <t>Open Data Barometer</t>
   </si>
   <si>
+    <t>http://www.opendataresearch.org/barometer</t>
+  </si>
+  <si>
     <t>Reporter Sans Frontieres</t>
   </si>
   <si>
+    <t>http://www.rsf.org</t>
+  </si>
+  <si>
     <t>Social networks: Facebook and others</t>
   </si>
   <si>
     <t>United Nations</t>
   </si>
   <si>
+    <t>http://www.un.org</t>
+  </si>
+  <si>
     <t>World Bank</t>
   </si>
   <si>
+    <t>http://www.worldbank.org/</t>
+  </si>
+  <si>
     <t>World Economic Forum</t>
   </si>
   <si>
+    <t>http://www.weforum.org/</t>
+  </si>
+  <si>
+    <t>WI </t>
+  </si>
+  <si>
+    <t>Wireless Intelligence (GSMA)</t>
+  </si>
+  <si>
+    <t>https://gsmaintelligence.com/</t>
+  </si>
+  <si>
     <t>Web Foundation</t>
+  </si>
+  <si>
+    <t>http://www.webfoundation.org</t>
+  </si>
+  <si>
+    <t>http://www.wikipedia.org</t>
+  </si>
+  <si>
+    <t>UNESCO</t>
+  </si>
+  <si>
+    <t>http://www.unesco.org</t>
   </si>
 </sst>
 </file>
@@ -1614,9 +1776,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="# ?/?" numFmtId="165"/>
+    <numFmt formatCode="# ??/??" numFmtId="165"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -1645,6 +1807,21 @@
       <b val="true"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1655,8 +1832,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FF"/>
-        <bgColor rgb="00CCFFFF"/>
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1669,7 +1846,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1693,86 +1870,51 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="15"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00E6E6FF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1781,253 +1923,320 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="1" pane="topLeft" sqref="3:3 D9"/>
+      <selection activeCell="G4" activeCellId="0" pane="topLeft" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.356862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.6117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="15.4941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="24.9607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="20.2313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.0549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.1372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="16.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.3450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="15.7372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="25.4588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="20.6588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1" s="2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>0.333333333333333</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+        <v>23</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0.2</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0.333333333333333</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+        <v>27</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>0.5</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>0.5</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>0.2</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>0.4</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.25</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0.333333333333333</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2048,2646 +2257,2961 @@
   </sheetPr>
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="H34" activeCellId="1" pane="topLeft" sqref="3:3 H34"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A58" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
+      <selection activeCell="J94" activeCellId="0" pane="topLeft" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.356862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.0078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9960784313725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="53.921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.1529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.9372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.7176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="M4" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>62</v>
+        <v>100</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="J19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="M19" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>128</v>
+        <v>100</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>81</v>
+        <v>140</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>62</v>
+        <v>89</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="0" t="n">
+        <v>153</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="0" t="n">
+        <v>159</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="31">
+      <c r="A31" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.5</v>
-      </c>
       <c r="D31" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>115</v>
+        <v>168</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>163</v>
+        <v>127</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="0" t="n">
+        <v>172</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>163</v>
+        <v>175</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="0" t="n">
+        <v>176</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="0" t="n">
+        <v>186</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>183</v>
+        <v>69</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>184</v>
+        <v>100</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>187</v>
+        <v>193</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C41" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="0" t="n">
+        <v>202</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="43">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.45" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="C43" s="0" t="n">
+        <v>206</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="0" t="n">
+        <v>209</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="C47" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="C49" s="0" t="n">
+        <v>224</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="0" t="n">
+        <v>227</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="0" t="n">
+        <v>230</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C52" s="0" t="n">
+        <v>233</v>
+      </c>
+      <c r="C52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="C53" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C54" s="0" t="n">
+        <v>239</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C55" s="0" t="n">
+        <v>242</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56" s="5">
-      <c r="A56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>239</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="56" s="4">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M56" s="5" t="s">
-        <v>64</v>
+      <c r="D56" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="0" t="n">
+        <v>248</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="0" t="n">
+        <v>251</v>
+      </c>
+      <c r="C58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="0" t="n">
+        <v>254</v>
+      </c>
+      <c r="C59" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60" s="0" t="n">
+        <v>257</v>
+      </c>
+      <c r="C60" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>1</v>
+        <v>264</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C63" s="0" t="n">
+        <v>267</v>
+      </c>
+      <c r="C63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="64">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.45" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C64" s="0" t="n">
+        <v>271</v>
+      </c>
+      <c r="C64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="E64" s="0" t="s">
-        <v>262</v>
+        <v>272</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="65">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.45" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C65" s="0" t="n">
+        <v>274</v>
+      </c>
+      <c r="C65" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>265</v>
+        <v>275</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.25" outlineLevel="0" r="66">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.45" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" s="0" t="n">
+        <v>278</v>
+      </c>
+      <c r="C66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J66" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C67" s="0" t="n">
+        <v>281</v>
+      </c>
+      <c r="C67" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="0" t="n">
+        <v>284</v>
+      </c>
+      <c r="C68" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="69">
       <c r="A69" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C69" s="0" t="n">
+        <v>287</v>
+      </c>
+      <c r="C69" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="C70" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="C70" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>191</v>
+        <v>291</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>1</v>
+        <v>294</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>296</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="0" t="n">
+        <v>298</v>
+      </c>
+      <c r="C72" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73" s="6">
-      <c r="A73" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C73" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="M73" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73" s="4">
+      <c r="A73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J73" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="C74" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="C74" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="0" t="n">
+        <v>309</v>
+      </c>
+      <c r="C75" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
+      </c>
+      <c r="J75" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="C76" s="0" t="n">
+        <v>312</v>
+      </c>
+      <c r="C76" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J76" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="77">
       <c r="A77" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>1</v>
+        <v>315</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>316</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J77" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>1</v>
+        <v>318</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>319</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J78" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>1</v>
+        <v>321</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>322</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J79" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>1</v>
+        <v>324</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>325</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>1</v>
+        <v>327</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>328</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C82" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="C82" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
       <c r="A83" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>1</v>
+        <v>333</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>334</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
       <c r="A84" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>1</v>
+        <v>336</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>337</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
       <c r="A85" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>340</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
       <c r="A86" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>1</v>
+        <v>342</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>343</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J86" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="87">
       <c r="A87" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="C87" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J87" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="88">
       <c r="A88" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" s="0" t="n">
+        <v>349</v>
+      </c>
+      <c r="C88" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J88" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
       <c r="A89" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>1</v>
+        <v>352</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>353</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J89" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
       <c r="A90" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>356</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
+      </c>
+      <c r="J90" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
       <c r="A91" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>1</v>
+        <v>358</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>359</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J91" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="92">
       <c r="A92" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>1</v>
+        <v>362</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>363</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
+      </c>
+      <c r="J92" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -4708,76 +5232,76 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A22" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="B123" activeCellId="1" pane="topLeft" sqref="3:3 B123"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
+      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="22.8823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.3607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.7607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="4" style="0" width="10.7176470588235"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="23.4509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="10.7176470588235"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.643137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.7176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>346</v>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2012</v>
@@ -4785,13 +5309,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2013</v>
@@ -4799,13 +5323,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2012</v>
@@ -4813,13 +5337,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2013</v>
@@ -4827,13 +5351,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2012</v>
@@ -4841,13 +5365,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2013</v>
@@ -4855,13 +5379,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2012</v>
@@ -4869,13 +5393,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2013</v>
@@ -4883,13 +5407,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2012</v>
@@ -4897,13 +5421,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2012</v>
@@ -4911,13 +5435,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2012</v>
@@ -4925,13 +5449,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2012</v>
@@ -4939,13 +5463,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2012</v>
@@ -4953,13 +5477,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2012</v>
@@ -4967,13 +5491,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2012</v>
@@ -4981,13 +5505,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2013</v>
@@ -4995,13 +5519,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>384</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2013</v>
@@ -5009,13 +5533,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2013</v>
@@ -5023,13 +5547,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2012</v>
@@ -5037,13 +5561,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2012</v>
@@ -5051,13 +5575,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2013</v>
@@ -5065,13 +5589,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>365</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2012</v>
@@ -5079,13 +5603,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2012</v>
@@ -5093,13 +5617,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2012</v>
@@ -5107,13 +5631,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2012</v>
@@ -5121,13 +5645,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2012</v>
@@ -5135,13 +5659,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2013</v>
@@ -5149,13 +5673,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2013</v>
@@ -5163,13 +5687,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2012</v>
@@ -5177,13 +5701,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2012</v>
@@ -5191,13 +5715,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2012</v>
@@ -5205,13 +5729,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2012</v>
@@ -5219,13 +5743,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2012</v>
@@ -5233,13 +5757,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>2012</v>
@@ -5247,13 +5771,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2013</v>
@@ -5261,13 +5785,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2012</v>
@@ -5275,13 +5799,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2012</v>
@@ -5289,13 +5813,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2012</v>
@@ -5303,13 +5827,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2012</v>
@@ -5317,13 +5841,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2012</v>
@@ -5331,13 +5855,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2013</v>
@@ -5345,13 +5869,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2013</v>
@@ -5359,13 +5883,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2012</v>
@@ -5373,13 +5897,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2012</v>
@@ -5387,13 +5911,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2012</v>
@@ -5401,13 +5925,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
       <c r="A47" s="0" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2012</v>
@@ -5415,13 +5939,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
       <c r="A48" s="0" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>445</v>
+        <v>474</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2012</v>
@@ -5429,13 +5953,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
       <c r="A49" s="0" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2012</v>
@@ -5443,13 +5967,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
       <c r="A50" s="0" t="s">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2013</v>
@@ -5457,13 +5981,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
       <c r="A51" s="0" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2012</v>
@@ -5471,13 +5995,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
       <c r="A52" s="0" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2012</v>
@@ -5485,13 +6009,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
       <c r="A53" s="0" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2012</v>
@@ -5499,13 +6023,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
       <c r="A54" s="0" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2012</v>
@@ -5513,13 +6037,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
       <c r="A55" s="0" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2013</v>
@@ -5527,13 +6051,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
       <c r="A56" s="0" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2012</v>
@@ -5541,13 +6065,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
       <c r="A57" s="0" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2012</v>
@@ -5555,13 +6079,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
       <c r="A58" s="0" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2012</v>
@@ -5569,13 +6093,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
       <c r="A59" s="0" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2012</v>
@@ -5583,13 +6107,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
       <c r="A60" s="0" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2012</v>
@@ -5597,13 +6121,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
       <c r="A61" s="0" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>2013</v>
@@ -5611,13 +6135,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
       <c r="A62" s="0" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>2013</v>
@@ -5625,13 +6149,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
       <c r="A63" s="0" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2012</v>
@@ -5639,13 +6163,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
       <c r="A64" s="0" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2012</v>
@@ -5653,13 +6177,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
       <c r="A65" s="0" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>2012</v>
@@ -5667,13 +6191,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
       <c r="A66" s="0" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>2012</v>
@@ -5681,13 +6205,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
       <c r="A67" s="0" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>2012</v>
@@ -5695,13 +6219,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
       <c r="A68" s="0" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>2012</v>
@@ -5709,13 +6233,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
       <c r="A69" s="0" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>2012</v>
@@ -5723,13 +6247,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
       <c r="A70" s="0" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D70" s="0" t="n">
         <v>2012</v>
@@ -5737,13 +6261,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
       <c r="A71" s="0" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D71" s="0" t="n">
         <v>2012</v>
@@ -5751,13 +6275,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
       <c r="A72" s="0" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D72" s="0" t="n">
         <v>2012</v>
@@ -5765,13 +6289,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
       <c r="A73" s="0" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D73" s="0" t="n">
         <v>2012</v>
@@ -5779,13 +6303,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
       <c r="A74" s="0" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D74" s="0" t="n">
         <v>2013</v>
@@ -5793,13 +6317,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
       <c r="A75" s="0" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="D75" s="0" t="n">
         <v>2012</v>
@@ -5807,13 +6331,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
       <c r="A76" s="0" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D76" s="0" t="n">
         <v>2012</v>
@@ -5821,13 +6345,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
       <c r="A77" s="0" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>2013</v>
@@ -5835,13 +6359,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
       <c r="A78" s="0" t="s">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>2012</v>
@@ -5849,13 +6373,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
       <c r="A79" s="0" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="D79" s="0" t="n">
         <v>2012</v>
@@ -5863,13 +6387,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
       <c r="A80" s="0" t="s">
-        <v>508</v>
+        <v>537</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>2012</v>
@@ -5877,13 +6401,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
       <c r="A81" s="0" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>511</v>
+        <v>540</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D81" s="0" t="n">
         <v>2013</v>
@@ -5891,13 +6415,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
       <c r="A82" s="0" t="s">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>513</v>
+        <v>542</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="D82" s="0" t="n">
         <v>2012</v>
@@ -5919,155 +6443,260 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="3:3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="83" zoomScaleNormal="83" zoomScalePageLayoutView="100">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.321568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.7176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="6">
-      <c r="A2" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3" s="6">
-      <c r="A3" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4" s="6">
-      <c r="A4" s="6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5" s="6">
-      <c r="A5" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6" s="6">
-      <c r="A6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7" s="6">
-      <c r="A7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8" s="6">
-      <c r="A8" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4" s="4">
+      <c r="A4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5" s="4">
+      <c r="A5" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7" s="4">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8" s="4">
+      <c r="A8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+        <v>561</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+        <v>563</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>522</v>
+        <v>565</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+        <v>567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+        <v>568</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+        <v>570</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+        <v>572</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>92</v>
+        <v>574</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+        <v>575</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>577</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://www.cia.gov/index.html" ref="D2" r:id="rId1"/>
+    <hyperlink display="http://www.eiu.com/" ref="D3" r:id="rId2"/>
+    <hyperlink display="http://www.euromonitor.com/" ref="D4" r:id="rId3"/>
+    <hyperlink display="https://www.facebook.com/" ref="D5" r:id="rId4"/>
+    <hyperlink display="http://www.freedomhouse.org/" ref="D6" r:id="rId5"/>
+    <hyperlink display="http://www.iea.org/" ref="D7" r:id="rId6"/>
+    <hyperlink display="http://www.insead.edu/" ref="D8" r:id="rId7"/>
+    <hyperlink display="http://www.itu.int" ref="D9" r:id="rId8"/>
+    <hyperlink display="http://www.opendataresearch.org/barometer" ref="D10" r:id="rId9"/>
+    <hyperlink display="http://www.rsf.org" ref="D11" r:id="rId10"/>
+    <hyperlink display="http://www.un.org" ref="D13" r:id="rId11"/>
+    <hyperlink display="http://www.worldbank.org/" ref="D14" r:id="rId12"/>
+    <hyperlink display="http://www.weforum.org/" ref="D15" r:id="rId13"/>
+    <hyperlink display="https://gsmaintelligence.com/" ref="D16" r:id="rId14"/>
+    <hyperlink display="http://www.webfoundation.org" ref="D17" r:id="rId15"/>
+    <hyperlink display="http://www.wikipedia.org" ref="D18" r:id="rId16"/>
+    <hyperlink display="http://www.unesco.org" ref="D19" r:id="rId17"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
